--- a/data_month/zb/工业/工业主要产品产量/冷轧薄板.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/冷轧薄板.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3887 +454,4510 @@
           <t>冷轧薄板产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>冷轧薄板产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.1</v>
+        <v>2.9</v>
       </c>
       <c r="C2" t="n">
-        <v>64.52</v>
+        <v>38.78</v>
       </c>
       <c r="D2" t="n">
-        <v>554.6900000000001</v>
+        <v>38.78</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8</v>
+        <v>2.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.6</v>
+        <v>10.7</v>
       </c>
       <c r="C3" t="n">
-        <v>61.5</v>
+        <v>42.14</v>
       </c>
       <c r="D3" t="n">
-        <v>616.0700000000001</v>
+        <v>81.75</v>
       </c>
       <c r="E3" t="n">
-        <v>26.1</v>
+        <v>5.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>42.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.1</v>
+        <v>24.2</v>
       </c>
       <c r="C4" t="n">
-        <v>66.01000000000001</v>
+        <v>53.58</v>
       </c>
       <c r="D4" t="n">
-        <v>682.22</v>
+        <v>143.53</v>
       </c>
       <c r="E4" t="n">
-        <v>27.3</v>
+        <v>19.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.9</v>
+        <v>29.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38.78</v>
+        <v>54.54</v>
       </c>
       <c r="D5" t="n">
-        <v>38.78</v>
+        <v>198.05</v>
       </c>
       <c r="E5" t="n">
-        <v>2.9</v>
+        <v>22.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>54.52000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.7</v>
+        <v>26.5</v>
       </c>
       <c r="C6" t="n">
-        <v>42.14</v>
+        <v>52.11</v>
       </c>
       <c r="D6" t="n">
-        <v>81.75</v>
+        <v>250.29</v>
       </c>
       <c r="E6" t="n">
-        <v>5.6</v>
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>52.23999999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.2</v>
+        <v>19.7</v>
       </c>
       <c r="C7" t="n">
-        <v>53.58</v>
+        <v>50.19</v>
       </c>
       <c r="D7" t="n">
-        <v>143.53</v>
+        <v>303.7</v>
       </c>
       <c r="E7" t="n">
-        <v>19.5</v>
+        <v>21.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.6</v>
+        <v>11.6</v>
       </c>
       <c r="C8" t="n">
-        <v>54.54</v>
+        <v>54.37</v>
       </c>
       <c r="D8" t="n">
-        <v>198.05</v>
+        <v>359.44</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1</v>
+        <v>20.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>55.74000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.5</v>
+        <v>25.8</v>
       </c>
       <c r="C9" t="n">
-        <v>52.11</v>
+        <v>61.55</v>
       </c>
       <c r="D9" t="n">
-        <v>250.29</v>
+        <v>421.37</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>20.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>61.93000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.7</v>
+        <v>25.3</v>
       </c>
       <c r="C10" t="n">
-        <v>50.19</v>
+        <v>57.24</v>
       </c>
       <c r="D10" t="n">
-        <v>303.7</v>
+        <v>477.79</v>
       </c>
       <c r="E10" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>56.42000000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.6</v>
+        <v>46.1</v>
       </c>
       <c r="C11" t="n">
-        <v>54.37</v>
+        <v>64.52</v>
       </c>
       <c r="D11" t="n">
-        <v>359.44</v>
+        <v>554.6900000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>20.6</v>
+        <v>25.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>76.90000000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.8</v>
+        <v>29.6</v>
       </c>
       <c r="C12" t="n">
-        <v>61.55</v>
+        <v>61.5</v>
       </c>
       <c r="D12" t="n">
-        <v>421.37</v>
+        <v>616.0700000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>20.9</v>
+        <v>26.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>61.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.3</v>
+        <v>39.1</v>
       </c>
       <c r="C13" t="n">
-        <v>57.24</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>477.79</v>
+        <v>682.22</v>
       </c>
       <c r="E13" t="n">
-        <v>21.1</v>
+        <v>27.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>66.14999999999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.8</v>
+        <v>45.7</v>
       </c>
       <c r="C14" t="n">
-        <v>76.72</v>
+        <v>59.83</v>
       </c>
       <c r="D14" t="n">
-        <v>676.28</v>
+        <v>59.83</v>
       </c>
       <c r="E14" t="n">
-        <v>23.4</v>
+        <v>45.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>59.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>21.9</v>
       </c>
       <c r="C15" t="n">
-        <v>72.79000000000001</v>
+        <v>54.97</v>
       </c>
       <c r="D15" t="n">
-        <v>749.04</v>
+        <v>115.2</v>
       </c>
       <c r="E15" t="n">
-        <v>22.8</v>
+        <v>32.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>55.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.7</v>
+        <v>16.3</v>
       </c>
       <c r="C16" t="n">
-        <v>80.36</v>
+        <v>69.13</v>
       </c>
       <c r="D16" t="n">
-        <v>817.8</v>
+        <v>185.6</v>
       </c>
       <c r="E16" t="n">
-        <v>21.8</v>
+        <v>24.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>70.39999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.7</v>
+        <v>19.5</v>
       </c>
       <c r="C17" t="n">
-        <v>59.83</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>59.83</v>
+        <v>249.73</v>
       </c>
       <c r="E17" t="n">
-        <v>45.7</v>
+        <v>23.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>64.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.9</v>
+        <v>17.5</v>
       </c>
       <c r="C18" t="n">
-        <v>54.97</v>
+        <v>66.27</v>
       </c>
       <c r="D18" t="n">
-        <v>115.2</v>
+        <v>316.1</v>
       </c>
       <c r="E18" t="n">
-        <v>32.4</v>
+        <v>22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>66.37000000000003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.3</v>
+        <v>11.4</v>
       </c>
       <c r="C19" t="n">
-        <v>69.13</v>
+        <v>61.21</v>
       </c>
       <c r="D19" t="n">
-        <v>185.6</v>
+        <v>378.01</v>
       </c>
       <c r="E19" t="n">
-        <v>24.8</v>
+        <v>20.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>61.90999999999997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.5</v>
+        <v>18.2</v>
       </c>
       <c r="C20" t="n">
-        <v>64.65000000000001</v>
+        <v>65.98</v>
       </c>
       <c r="D20" t="n">
-        <v>249.73</v>
+        <v>444.41</v>
       </c>
       <c r="E20" t="n">
-        <v>23.3</v>
+        <v>19.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>66.40000000000003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.5</v>
+        <v>28.4</v>
       </c>
       <c r="C21" t="n">
-        <v>66.27</v>
+        <v>71.59</v>
       </c>
       <c r="D21" t="n">
-        <v>316.1</v>
+        <v>516.46</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>20.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>72.05000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.4</v>
+        <v>40.3</v>
       </c>
       <c r="C22" t="n">
-        <v>61.21</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>378.01</v>
+        <v>599.58</v>
       </c>
       <c r="E22" t="n">
-        <v>20.3</v>
+        <v>23.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>83.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.2</v>
+        <v>23.8</v>
       </c>
       <c r="C23" t="n">
-        <v>65.98</v>
+        <v>76.72</v>
       </c>
       <c r="D23" t="n">
-        <v>444.41</v>
+        <v>676.28</v>
       </c>
       <c r="E23" t="n">
-        <v>19.8</v>
+        <v>23.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>76.69999999999993</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.4</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>71.59</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>516.46</v>
+        <v>749.04</v>
       </c>
       <c r="E24" t="n">
-        <v>20.9</v>
+        <v>22.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>72.75999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.3</v>
+        <v>32.7</v>
       </c>
       <c r="C25" t="n">
-        <v>82.29000000000001</v>
+        <v>80.36</v>
       </c>
       <c r="D25" t="n">
-        <v>599.58</v>
+        <v>817.8</v>
       </c>
       <c r="E25" t="n">
-        <v>23.3</v>
+        <v>21.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>68.75999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43.5</v>
+        <v>32.2</v>
       </c>
       <c r="C26" t="n">
-        <v>122.9</v>
+        <v>71.89</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.37</v>
+        <v>137.36</v>
       </c>
       <c r="E26" t="n">
-        <v>53.3</v>
+        <v>25.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>137.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60.5</v>
+        <v>47.3</v>
       </c>
       <c r="C27" t="n">
-        <v>124.59</v>
+        <v>96.56</v>
       </c>
       <c r="D27" t="n">
-        <v>1168.14</v>
+        <v>236.52</v>
       </c>
       <c r="E27" t="n">
-        <v>53.2</v>
+        <v>36.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>99.16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.8</v>
+        <v>73.4841874020331</v>
       </c>
       <c r="C28" t="n">
-        <v>146.77</v>
+        <v>101.697364</v>
       </c>
       <c r="D28" t="n">
-        <v>1314.57</v>
+        <v>345.027869</v>
       </c>
       <c r="E28" t="n">
-        <v>53.1</v>
+        <v>49.8922123105471</v>
+      </c>
+      <c r="F28" t="n">
+        <v>108.507869</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.2</v>
+        <v>46.6</v>
       </c>
       <c r="C29" t="n">
-        <v>71.89</v>
+        <v>104.9</v>
       </c>
       <c r="D29" t="n">
-        <v>137.36</v>
+        <v>450.62</v>
       </c>
       <c r="E29" t="n">
-        <v>25.8</v>
+        <v>48.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>105.592131</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>96.56</v>
+        <v>110.6</v>
       </c>
       <c r="D30" t="n">
-        <v>236.52</v>
+        <v>566.76</v>
       </c>
       <c r="E30" t="n">
-        <v>36.3</v>
+        <v>51.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>116.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.4841874020331</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>101.697364</v>
+        <v>113.46</v>
       </c>
       <c r="D31" t="n">
-        <v>345.027869</v>
+        <v>688.79</v>
       </c>
       <c r="E31" t="n">
-        <v>49.8922123105471</v>
+        <v>55.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>122.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.6</v>
+        <v>49.9</v>
       </c>
       <c r="C32" t="n">
-        <v>104.9</v>
+        <v>112.34</v>
       </c>
       <c r="D32" t="n">
-        <v>450.62</v>
+        <v>801.23</v>
       </c>
       <c r="E32" t="n">
-        <v>48.2</v>
+        <v>54.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>112.4400000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70.59999999999999</v>
+        <v>55.1</v>
       </c>
       <c r="C33" t="n">
-        <v>110.6</v>
+        <v>119.75</v>
       </c>
       <c r="D33" t="n">
-        <v>566.76</v>
+        <v>921</v>
       </c>
       <c r="E33" t="n">
-        <v>51.5</v>
+        <v>54.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>119.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.09999999999999</v>
+        <v>43.5</v>
       </c>
       <c r="C34" t="n">
-        <v>113.46</v>
+        <v>122.9</v>
       </c>
       <c r="D34" t="n">
-        <v>688.79</v>
+        <v>1043.37</v>
       </c>
       <c r="E34" t="n">
-        <v>55.5</v>
+        <v>53.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>122.3699999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.9</v>
+        <v>60.5</v>
       </c>
       <c r="C35" t="n">
-        <v>112.34</v>
+        <v>124.59</v>
       </c>
       <c r="D35" t="n">
-        <v>801.23</v>
+        <v>1168.14</v>
       </c>
       <c r="E35" t="n">
-        <v>54.7</v>
+        <v>53.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>124.7700000000002</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.1</v>
+        <v>51.8</v>
       </c>
       <c r="C36" t="n">
-        <v>119.75</v>
+        <v>146.77</v>
       </c>
       <c r="D36" t="n">
-        <v>921</v>
+        <v>1314.57</v>
       </c>
       <c r="E36" t="n">
-        <v>54.8</v>
+        <v>53.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>146.4299999999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.6</v>
+        <v>68.856328465293</v>
       </c>
       <c r="C37" t="n">
-        <v>138.46</v>
+        <v>109.175974</v>
       </c>
       <c r="D37" t="n">
-        <v>1301.26</v>
+        <v>109.175974</v>
       </c>
       <c r="E37" t="n">
-        <v>23</v>
+        <v>68.856328465293</v>
+      </c>
+      <c r="F37" t="n">
+        <v>109.175974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.7</v>
+        <v>64.3</v>
       </c>
       <c r="C38" t="n">
-        <v>125.14</v>
+        <v>118.95</v>
       </c>
       <c r="D38" t="n">
-        <v>1428.38</v>
+        <v>228.15</v>
       </c>
       <c r="E38" t="n">
-        <v>20.4</v>
+        <v>66.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>118.974026</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-7.5</v>
+        <v>36.6</v>
       </c>
       <c r="C39" t="n">
-        <v>127.74</v>
+        <v>121.69</v>
       </c>
       <c r="D39" t="n">
-        <v>1563.83</v>
+        <v>335.6</v>
       </c>
       <c r="E39" t="n">
-        <v>25.2</v>
+        <v>47.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>107.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.856328465293</v>
+        <v>12.4</v>
       </c>
       <c r="C40" t="n">
-        <v>109.175974</v>
+        <v>115.16</v>
       </c>
       <c r="D40" t="n">
-        <v>109.175974</v>
+        <v>450.48</v>
       </c>
       <c r="E40" t="n">
-        <v>68.856328465293</v>
+        <v>34.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>114.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.3</v>
+        <v>14.1</v>
       </c>
       <c r="C41" t="n">
-        <v>118.95</v>
+        <v>120.96</v>
       </c>
       <c r="D41" t="n">
-        <v>228.15</v>
+        <v>591.39</v>
       </c>
       <c r="E41" t="n">
-        <v>66.5</v>
+        <v>28.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>140.91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.6</v>
+        <v>31</v>
       </c>
       <c r="C42" t="n">
-        <v>121.69</v>
+        <v>151.25</v>
       </c>
       <c r="D42" t="n">
-        <v>335.6</v>
+        <v>757.29</v>
       </c>
       <c r="E42" t="n">
-        <v>47.3</v>
+        <v>31.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>165.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.4</v>
+        <v>7.1</v>
       </c>
       <c r="C43" t="n">
-        <v>115.16</v>
+        <v>126.11</v>
       </c>
       <c r="D43" t="n">
-        <v>450.48</v>
+        <v>878.16</v>
       </c>
       <c r="E43" t="n">
-        <v>34.3</v>
+        <v>27.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>120.87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.1</v>
+        <v>21.9</v>
       </c>
       <c r="C44" t="n">
-        <v>120.96</v>
+        <v>138.71</v>
       </c>
       <c r="D44" t="n">
-        <v>591.39</v>
+        <v>1017.4</v>
       </c>
       <c r="E44" t="n">
-        <v>28.7</v>
+        <v>26.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>139.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31</v>
+        <v>13.4</v>
       </c>
       <c r="C45" t="n">
-        <v>151.25</v>
+        <v>145.02</v>
       </c>
       <c r="D45" t="n">
-        <v>757.29</v>
+        <v>1163.78</v>
       </c>
       <c r="E45" t="n">
-        <v>31.8</v>
+        <v>24.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>146.38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="C46" t="n">
-        <v>126.11</v>
+        <v>138.46</v>
       </c>
       <c r="D46" t="n">
-        <v>878.16</v>
+        <v>1301.26</v>
       </c>
       <c r="E46" t="n">
-        <v>27.8</v>
+        <v>23</v>
+      </c>
+      <c r="F46" t="n">
+        <v>137.48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>21.9</v>
+        <v>-1.7</v>
       </c>
       <c r="C47" t="n">
-        <v>138.71</v>
+        <v>125.14</v>
       </c>
       <c r="D47" t="n">
-        <v>1017.4</v>
+        <v>1428.38</v>
       </c>
       <c r="E47" t="n">
-        <v>26.4</v>
+        <v>20.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>127.1200000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13.4</v>
+        <v>-7.5</v>
       </c>
       <c r="C48" t="n">
-        <v>145.02</v>
+        <v>127.74</v>
       </c>
       <c r="D48" t="n">
-        <v>1163.78</v>
+        <v>1563.83</v>
       </c>
       <c r="E48" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>135.4499999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-7.8</v>
+        <v>1.92244489785296</v>
       </c>
       <c r="C49" t="n">
-        <v>124.56</v>
+        <v>124.65</v>
       </c>
       <c r="D49" t="n">
-        <v>1376.54</v>
+        <v>124.65</v>
       </c>
       <c r="E49" t="n">
-        <v>6.6</v>
+        <v>1.92244489785296</v>
+      </c>
+      <c r="F49" t="n">
+        <v>124.65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-11.5</v>
+        <v>9.5</v>
       </c>
       <c r="C50" t="n">
-        <v>111.35</v>
+        <v>112.26</v>
       </c>
       <c r="D50" t="n">
-        <v>1488.5</v>
+        <v>236.91</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>5.4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>112.26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-12.6</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>108.88</v>
+        <v>144.96</v>
       </c>
       <c r="D51" t="n">
-        <v>1599.04</v>
+        <v>379.23</v>
       </c>
       <c r="E51" t="n">
-        <v>3.5</v>
+        <v>7.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>142.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.92244489785296</v>
+        <v>21.5</v>
       </c>
       <c r="C52" t="n">
-        <v>124.65</v>
+        <v>139.14</v>
       </c>
       <c r="D52" t="n">
-        <v>124.65</v>
+        <v>523.1900000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>1.92244489785296</v>
+        <v>12.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>143.96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9.5</v>
+        <v>14.3</v>
       </c>
       <c r="C53" t="n">
-        <v>112.26</v>
+        <v>152.18</v>
       </c>
       <c r="D53" t="n">
-        <v>236.91</v>
+        <v>678.63</v>
       </c>
       <c r="E53" t="n">
-        <v>5.4</v>
+        <v>13.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>155.4399999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>22.7</v>
       </c>
       <c r="C54" t="n">
-        <v>144.96</v>
+        <v>174.92</v>
       </c>
       <c r="D54" t="n">
-        <v>379.23</v>
+        <v>851.77</v>
       </c>
       <c r="E54" t="n">
-        <v>7.7</v>
+        <v>15.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>173.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21.5</v>
+        <v>10.5</v>
       </c>
       <c r="C55" t="n">
-        <v>139.14</v>
+        <v>144.45</v>
       </c>
       <c r="D55" t="n">
-        <v>523.1900000000001</v>
+        <v>971.5599999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>12.6</v>
+        <v>11.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>119.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>14.3</v>
+        <v>7.1</v>
       </c>
       <c r="C56" t="n">
-        <v>152.18</v>
+        <v>151.93</v>
       </c>
       <c r="D56" t="n">
-        <v>678.63</v>
+        <v>1125.11</v>
       </c>
       <c r="E56" t="n">
-        <v>13.8</v>
+        <v>11.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>153.55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>22.7</v>
+        <v>-11.4</v>
       </c>
       <c r="C57" t="n">
-        <v>174.92</v>
+        <v>126.75</v>
       </c>
       <c r="D57" t="n">
-        <v>851.77</v>
+        <v>1251.98</v>
       </c>
       <c r="E57" t="n">
-        <v>15.2</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>126.8700000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10.5</v>
+        <v>-7.8</v>
       </c>
       <c r="C58" t="n">
-        <v>144.45</v>
+        <v>124.56</v>
       </c>
       <c r="D58" t="n">
-        <v>971.5599999999999</v>
+        <v>1376.54</v>
       </c>
       <c r="E58" t="n">
-        <v>11.7</v>
+        <v>6.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>124.5599999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7.1</v>
+        <v>-11.5</v>
       </c>
       <c r="C59" t="n">
-        <v>151.93</v>
+        <v>111.35</v>
       </c>
       <c r="D59" t="n">
-        <v>1125.11</v>
+        <v>1488.5</v>
       </c>
       <c r="E59" t="n">
-        <v>11.1</v>
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>111.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-11.4</v>
+        <v>-12.6</v>
       </c>
       <c r="C60" t="n">
-        <v>126.75</v>
+        <v>108.88</v>
       </c>
       <c r="D60" t="n">
-        <v>1251.98</v>
+        <v>1599.04</v>
       </c>
       <c r="E60" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>110.54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>41.7</v>
+        <v>-2.28092464547714</v>
       </c>
       <c r="C61" t="n">
-        <v>147.82</v>
+        <v>91.23595899999999</v>
       </c>
       <c r="D61" t="n">
-        <v>1317.99</v>
+        <v>91.23595899999999</v>
       </c>
       <c r="E61" t="n">
-        <v>14.3</v>
+        <v>-2.28092464547714</v>
+      </c>
+      <c r="F61" t="n">
+        <v>91.23595899999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>75.7</v>
+        <v>4.4</v>
       </c>
       <c r="C62" t="n">
-        <v>167.25</v>
+        <v>92.11</v>
       </c>
       <c r="D62" t="n">
-        <v>1488.74</v>
+        <v>183.33</v>
       </c>
       <c r="E62" t="n">
-        <v>19.2</v>
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>92.09404100000002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>41.3</v>
+        <v>-11.5</v>
       </c>
       <c r="C63" t="n">
-        <v>160.27</v>
+        <v>112.28</v>
       </c>
       <c r="D63" t="n">
-        <v>1641.14</v>
+        <v>305.09</v>
       </c>
       <c r="E63" t="n">
-        <v>20.4</v>
+        <v>-3.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>121.76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-2.28092464547714</v>
+        <v>-1.2</v>
       </c>
       <c r="C64" t="n">
-        <v>91.23595899999999</v>
+        <v>128.27</v>
       </c>
       <c r="D64" t="n">
-        <v>91.23595899999999</v>
+        <v>441.72</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.28092464547714</v>
+        <v>-4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>136.6300000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.4</v>
+        <v>-5.6</v>
       </c>
       <c r="C65" t="n">
-        <v>92.11</v>
+        <v>129.06</v>
       </c>
       <c r="D65" t="n">
-        <v>183.33</v>
+        <v>572.17</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>130.4499999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-11.5</v>
+        <v>-5.43040315741293</v>
       </c>
       <c r="C66" t="n">
-        <v>112.28</v>
+        <v>130.202758</v>
       </c>
       <c r="D66" t="n">
-        <v>305.09</v>
+        <v>681.604409</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.8</v>
+        <v>-3.34302629458674</v>
+      </c>
+      <c r="F66" t="n">
+        <v>109.4344090000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.2</v>
+        <v>19.1958348477672</v>
       </c>
       <c r="C67" t="n">
-        <v>128.27</v>
+        <v>152.261061</v>
       </c>
       <c r="D67" t="n">
-        <v>441.72</v>
+        <v>876.867965</v>
       </c>
       <c r="E67" t="n">
-        <v>-4</v>
+        <v>3.11486812591189</v>
+      </c>
+      <c r="F67" t="n">
+        <v>195.263556</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-5.6</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>129.06</v>
+        <v>147.25</v>
       </c>
       <c r="D68" t="n">
-        <v>572.17</v>
+        <v>1026.83</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.2</v>
+        <v>4.2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>149.9620349999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-5.43040315741293</v>
+        <v>40.3888014255302</v>
       </c>
       <c r="C69" t="n">
-        <v>130.202758</v>
+        <v>139.447093</v>
       </c>
       <c r="D69" t="n">
-        <v>681.604409</v>
+        <v>1158.411166</v>
       </c>
       <c r="E69" t="n">
-        <v>-3.34302629458674</v>
+        <v>11.0283747471409</v>
+      </c>
+      <c r="F69" t="n">
+        <v>131.5811660000002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>19.1958348477672</v>
+        <v>41.7</v>
       </c>
       <c r="C70" t="n">
-        <v>152.261061</v>
+        <v>147.82</v>
       </c>
       <c r="D70" t="n">
-        <v>876.867965</v>
+        <v>1317.99</v>
       </c>
       <c r="E70" t="n">
-        <v>3.11486812591189</v>
+        <v>14.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>159.5788339999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>19</v>
+        <v>75.7</v>
       </c>
       <c r="C71" t="n">
-        <v>147.25</v>
+        <v>167.25</v>
       </c>
       <c r="D71" t="n">
-        <v>1026.83</v>
+        <v>1488.74</v>
       </c>
       <c r="E71" t="n">
-        <v>4.2</v>
+        <v>19.2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>170.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>40.3888014255302</v>
+        <v>41.3</v>
       </c>
       <c r="C72" t="n">
-        <v>139.447093</v>
+        <v>160.27</v>
       </c>
       <c r="D72" t="n">
-        <v>1158.411166</v>
+        <v>1641.14</v>
       </c>
       <c r="E72" t="n">
-        <v>11.0283747471409</v>
+        <v>20.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>152.4000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10.4223801727078</v>
+        <v>57.8838174273859</v>
       </c>
       <c r="C73" t="n">
-        <v>193.937938</v>
+        <v>152.040879</v>
       </c>
       <c r="D73" t="n">
-        <v>1825.541603</v>
+        <v>152.040879</v>
       </c>
       <c r="E73" t="n">
-        <v>24.6693604204776</v>
+        <v>57.8838174273859</v>
+      </c>
+      <c r="F73" t="n">
+        <v>152.040879</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.1</v>
+        <v>26.8913028655146</v>
       </c>
       <c r="C74" t="n">
-        <v>201.3</v>
+        <v>135.309631</v>
       </c>
       <c r="D74" t="n">
-        <v>2031.6</v>
+        <v>287.35051</v>
       </c>
       <c r="E74" t="n">
-        <v>24.7</v>
+        <v>41.4107311268276</v>
+      </c>
+      <c r="F74" t="n">
+        <v>135.309631</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>26.5</v>
       </c>
       <c r="C75" t="n">
-        <v>210.6</v>
+        <v>174.5</v>
       </c>
       <c r="D75" t="n">
-        <v>2244.2</v>
+        <v>469</v>
       </c>
       <c r="E75" t="n">
-        <v>23.3</v>
+        <v>34.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>181.64949</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>57.8838174273859</v>
+        <v>28</v>
       </c>
       <c r="C76" t="n">
-        <v>152.040879</v>
+        <v>171.8</v>
       </c>
       <c r="D76" t="n">
-        <v>152.040879</v>
+        <v>634.8</v>
       </c>
       <c r="E76" t="n">
-        <v>57.8838174273859</v>
+        <v>31.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>165.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>26.8913028655146</v>
+        <v>40.5308226372648</v>
       </c>
       <c r="C77" t="n">
-        <v>135.309631</v>
+        <v>204.694217</v>
       </c>
       <c r="D77" t="n">
-        <v>287.35051</v>
+        <v>843.9102779999999</v>
       </c>
       <c r="E77" t="n">
-        <v>41.4107311268276</v>
+        <v>33.9272097197958</v>
+      </c>
+      <c r="F77" t="n">
+        <v>209.110278</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>26.5</v>
+        <v>23.6</v>
       </c>
       <c r="C78" t="n">
-        <v>174.5</v>
+        <v>201.4</v>
       </c>
       <c r="D78" t="n">
-        <v>469</v>
+        <v>1045.8</v>
       </c>
       <c r="E78" t="n">
-        <v>34.8</v>
+        <v>31.9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>201.889722</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>7.4</v>
       </c>
       <c r="C79" t="n">
-        <v>171.8</v>
+        <v>182.8</v>
       </c>
       <c r="D79" t="n">
-        <v>634.8</v>
+        <v>1229</v>
       </c>
       <c r="E79" t="n">
-        <v>31.8</v>
+        <v>27.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>183.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>40.5308226372648</v>
+        <v>19.5</v>
       </c>
       <c r="C80" t="n">
-        <v>204.694217</v>
+        <v>196.3</v>
       </c>
       <c r="D80" t="n">
-        <v>843.9102779999999</v>
+        <v>1429.6</v>
       </c>
       <c r="E80" t="n">
-        <v>33.9272097197958</v>
+        <v>26.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>200.5999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>23.6</v>
+        <v>29.2</v>
       </c>
       <c r="C81" t="n">
-        <v>201.4</v>
+        <v>202</v>
       </c>
       <c r="D81" t="n">
-        <v>1045.8</v>
+        <v>1631.8</v>
       </c>
       <c r="E81" t="n">
-        <v>31.9</v>
+        <v>26.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>202.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7.4</v>
+        <v>10.4223801727078</v>
       </c>
       <c r="C82" t="n">
-        <v>182.8</v>
+        <v>193.937938</v>
       </c>
       <c r="D82" t="n">
-        <v>1229</v>
+        <v>1825.541603</v>
       </c>
       <c r="E82" t="n">
-        <v>27.8</v>
+        <v>24.6693604204776</v>
+      </c>
+      <c r="F82" t="n">
+        <v>193.7416029999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>19.5</v>
+        <v>22.1</v>
       </c>
       <c r="C83" t="n">
-        <v>196.3</v>
+        <v>201.3</v>
       </c>
       <c r="D83" t="n">
-        <v>1429.6</v>
+        <v>2031.6</v>
       </c>
       <c r="E83" t="n">
-        <v>26.5</v>
+        <v>24.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>206.058397</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>29.2</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>202</v>
+        <v>210.6</v>
       </c>
       <c r="D84" t="n">
-        <v>1631.8</v>
+        <v>2244.2</v>
       </c>
       <c r="E84" t="n">
-        <v>26.9</v>
+        <v>23.3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>212.5999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>20.5</v>
+        <v>18.5998609482954</v>
       </c>
       <c r="C85" t="n">
-        <v>213.5</v>
+        <v>178.515977</v>
       </c>
       <c r="D85" t="n">
-        <v>2139.2</v>
+        <v>178.515977</v>
       </c>
       <c r="E85" t="n">
-        <v>24.5</v>
+        <v>18.5998609482954</v>
+      </c>
+      <c r="F85" t="n">
+        <v>178.515977</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>21.3</v>
+        <v>28.9</v>
       </c>
       <c r="C86" t="n">
-        <v>234</v>
+        <v>173.9</v>
       </c>
       <c r="D86" t="n">
-        <v>2377</v>
+        <v>352.4</v>
       </c>
       <c r="E86" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>173.884023</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8.4</v>
+        <v>17.8</v>
       </c>
       <c r="C87" t="n">
-        <v>215.3</v>
+        <v>196.1</v>
       </c>
       <c r="D87" t="n">
-        <v>2592.3</v>
+        <v>548.1</v>
       </c>
       <c r="E87" t="n">
-        <v>22.5</v>
+        <v>22</v>
+      </c>
+      <c r="F87" t="n">
+        <v>195.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>18.5998609482954</v>
+        <v>26.8</v>
       </c>
       <c r="C88" t="n">
-        <v>178.515977</v>
+        <v>211.6</v>
       </c>
       <c r="D88" t="n">
-        <v>178.515977</v>
+        <v>755.8</v>
       </c>
       <c r="E88" t="n">
-        <v>18.5998609482954</v>
+        <v>22.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>207.6999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>28.9</v>
+        <v>21</v>
       </c>
       <c r="C89" t="n">
-        <v>173.9</v>
+        <v>203.2</v>
       </c>
       <c r="D89" t="n">
-        <v>352.4</v>
+        <v>962.2</v>
       </c>
       <c r="E89" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>206.4000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>17.8</v>
+        <v>29.3</v>
       </c>
       <c r="C90" t="n">
-        <v>196.1</v>
+        <v>232.5</v>
       </c>
       <c r="D90" t="n">
-        <v>548.1</v>
+        <v>1194.8</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>24.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>232.5999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>26.8</v>
+        <v>28.8</v>
       </c>
       <c r="C91" t="n">
-        <v>211.6</v>
+        <v>219.8</v>
       </c>
       <c r="D91" t="n">
-        <v>755.8</v>
+        <v>1436</v>
       </c>
       <c r="E91" t="n">
-        <v>22.9</v>
+        <v>23.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>241.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>21</v>
+        <v>31.2</v>
       </c>
       <c r="C92" t="n">
-        <v>203.2</v>
+        <v>243.2</v>
       </c>
       <c r="D92" t="n">
-        <v>962.2</v>
+        <v>1701.2</v>
       </c>
       <c r="E92" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>265.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>29.3</v>
+        <v>20.1</v>
       </c>
       <c r="C93" t="n">
-        <v>232.5</v>
+        <v>228.7</v>
       </c>
       <c r="D93" t="n">
-        <v>1194.8</v>
+        <v>1929.3</v>
       </c>
       <c r="E93" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>228.0999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>28.8</v>
+        <v>20.5</v>
       </c>
       <c r="C94" t="n">
-        <v>219.8</v>
+        <v>213.5</v>
       </c>
       <c r="D94" t="n">
-        <v>1436</v>
+        <v>2139.2</v>
       </c>
       <c r="E94" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>209.8999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>31.2</v>
+        <v>21.3</v>
       </c>
       <c r="C95" t="n">
-        <v>243.2</v>
+        <v>234</v>
       </c>
       <c r="D95" t="n">
-        <v>1701.2</v>
+        <v>2377</v>
       </c>
       <c r="E95" t="n">
-        <v>25.4</v>
+        <v>23.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>237.8000000000002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>20.1</v>
+        <v>8.4</v>
       </c>
       <c r="C96" t="n">
-        <v>228.7</v>
+        <v>215.3</v>
       </c>
       <c r="D96" t="n">
-        <v>1929.3</v>
+        <v>2592.3</v>
       </c>
       <c r="E96" t="n">
-        <v>24.6</v>
+        <v>22.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>215.3000000000002</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>17.9</v>
+        <v>-1.5126050420168</v>
       </c>
       <c r="C97" t="n">
-        <v>233.4</v>
+        <v>175.8</v>
       </c>
       <c r="D97" t="n">
-        <v>2083.1</v>
+        <v>175.8</v>
       </c>
       <c r="E97" t="n">
-        <v>6.2</v>
+        <v>-1.5126050420168</v>
+      </c>
+      <c r="F97" t="n">
+        <v>175.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>10.7</v>
+        <v>13.3</v>
       </c>
       <c r="C98" t="n">
-        <v>240.6</v>
+        <v>194.7</v>
       </c>
       <c r="D98" t="n">
-        <v>2349.8</v>
+        <v>370.5</v>
       </c>
       <c r="E98" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>194.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>8.300000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="C99" t="n">
-        <v>219.2</v>
+        <v>215</v>
       </c>
       <c r="D99" t="n">
-        <v>2561.8</v>
+        <v>557.6</v>
       </c>
       <c r="E99" t="n">
-        <v>7.2</v>
+        <v>11.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1.5126050420168</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>175.8</v>
+        <v>217.1</v>
       </c>
       <c r="D100" t="n">
-        <v>175.8</v>
+        <v>765.2</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.5126050420168</v>
+        <v>7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>207.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>13.3</v>
+        <v>11.2</v>
       </c>
       <c r="C101" t="n">
-        <v>194.7</v>
+        <v>214.8</v>
       </c>
       <c r="D101" t="n">
-        <v>370.5</v>
+        <v>954.4</v>
       </c>
       <c r="E101" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>189.1999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>23.8</v>
+        <v>0.8</v>
       </c>
       <c r="C102" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="D102" t="n">
-        <v>557.6</v>
+        <v>1171.8</v>
       </c>
       <c r="E102" t="n">
-        <v>11.1</v>
+        <v>5.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>217.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C103" t="n">
-        <v>217.1</v>
+        <v>213.1</v>
       </c>
       <c r="D103" t="n">
-        <v>765.2</v>
+        <v>1410.6</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>238.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="C104" t="n">
-        <v>214.8</v>
+        <v>220.9</v>
       </c>
       <c r="D104" t="n">
-        <v>954.4</v>
+        <v>1631.5</v>
       </c>
       <c r="E104" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>220.9000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C105" t="n">
-        <v>213.9</v>
+        <v>219.4</v>
       </c>
       <c r="D105" t="n">
-        <v>1171.8</v>
+        <v>1847.1</v>
       </c>
       <c r="E105" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>215.5999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>9.5</v>
+        <v>17.9</v>
       </c>
       <c r="C106" t="n">
-        <v>213.1</v>
+        <v>233.4</v>
       </c>
       <c r="D106" t="n">
-        <v>1410.6</v>
+        <v>2083.1</v>
       </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>6.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="C107" t="n">
-        <v>220.9</v>
+        <v>240.6</v>
       </c>
       <c r="D107" t="n">
-        <v>1631.5</v>
+        <v>2349.8</v>
       </c>
       <c r="E107" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>266.7000000000003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>219.4</v>
+        <v>219.2</v>
       </c>
       <c r="D108" t="n">
-        <v>1847.1</v>
+        <v>2561.8</v>
       </c>
       <c r="E108" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>284.8</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>2393.9</v>
+        <v>348.2</v>
       </c>
       <c r="E109" t="n">
-        <v>12.7</v>
+        <v>1.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>348.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>19.8</v>
+        <v>15.3057336748105</v>
       </c>
       <c r="C110" t="n">
-        <v>286.7</v>
+        <v>253.056102</v>
       </c>
       <c r="D110" t="n">
-        <v>2694.2</v>
+        <v>616.494786</v>
       </c>
       <c r="E110" t="n">
-        <v>12.8</v>
+        <v>10.1940573084548</v>
+      </c>
+      <c r="F110" t="n">
+        <v>268.294786</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>26.4</v>
+        <v>11.1662630195978</v>
       </c>
       <c r="C111" t="n">
-        <v>292.6</v>
+        <v>232.879383</v>
       </c>
       <c r="D111" t="n">
-        <v>3031.7</v>
+        <v>858.883853</v>
       </c>
       <c r="E111" t="n">
-        <v>13.1</v>
+        <v>11.4951115705071</v>
+      </c>
+      <c r="F111" t="n">
+        <v>242.3890670000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>11.9678708438756</v>
+      </c>
+      <c r="C112" t="n">
+        <v>243.020223</v>
+      </c>
       <c r="D112" t="n">
-        <v>348.2</v>
+        <v>1100.620687</v>
       </c>
       <c r="E112" t="n">
-        <v>1.8</v>
+        <v>12.6525143950391</v>
+      </c>
+      <c r="F112" t="n">
+        <v>241.736834</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>15.3057336748105</v>
+        <v>14.3</v>
       </c>
       <c r="C113" t="n">
-        <v>253.056102</v>
+        <v>247.6</v>
       </c>
       <c r="D113" t="n">
-        <v>616.494786</v>
+        <v>1353.1</v>
       </c>
       <c r="E113" t="n">
-        <v>10.1940573084548</v>
+        <v>12.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>252.4793129999998</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>11.1662630195978</v>
+        <v>15.7</v>
       </c>
       <c r="C114" t="n">
-        <v>232.879383</v>
+        <v>244.2</v>
       </c>
       <c r="D114" t="n">
-        <v>858.883853</v>
+        <v>1601.5</v>
       </c>
       <c r="E114" t="n">
-        <v>11.4951115705071</v>
+        <v>11.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>248.4000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>11.9678708438756</v>
+        <v>13.3</v>
       </c>
       <c r="C115" t="n">
-        <v>243.020223</v>
+        <v>250.9</v>
       </c>
       <c r="D115" t="n">
-        <v>1100.620687</v>
+        <v>1855.4</v>
       </c>
       <c r="E115" t="n">
-        <v>12.6525143950391</v>
+        <v>11.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>253.9000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>14.3</v>
+        <v>23.1</v>
       </c>
       <c r="C116" t="n">
-        <v>247.6</v>
+        <v>276.4</v>
       </c>
       <c r="D116" t="n">
-        <v>1353.1</v>
+        <v>2131.3</v>
       </c>
       <c r="E116" t="n">
-        <v>12.1</v>
+        <v>12.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>275.9000000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>15.7</v>
+        <v>20.5</v>
       </c>
       <c r="C117" t="n">
-        <v>244.2</v>
+        <v>284.8</v>
       </c>
       <c r="D117" t="n">
-        <v>1601.5</v>
+        <v>2393.9</v>
       </c>
       <c r="E117" t="n">
-        <v>11.6</v>
+        <v>12.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>262.5999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>13.3</v>
+        <v>19.8</v>
       </c>
       <c r="C118" t="n">
-        <v>250.9</v>
+        <v>286.7</v>
       </c>
       <c r="D118" t="n">
-        <v>1855.4</v>
+        <v>2694.2</v>
       </c>
       <c r="E118" t="n">
-        <v>11.8</v>
+        <v>12.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>300.2999999999997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>23.1</v>
+        <v>26.4</v>
       </c>
       <c r="C119" t="n">
-        <v>276.4</v>
+        <v>292.6</v>
       </c>
       <c r="D119" t="n">
-        <v>2131.3</v>
+        <v>3031.7</v>
       </c>
       <c r="E119" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>337.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>324.2</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>3054.7</v>
+        <v>442.7</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
+        <v>17.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>442.7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C121" t="n">
-        <v>343.7</v>
+        <v>298.5</v>
       </c>
       <c r="D121" t="n">
-        <v>3366.6</v>
+        <v>750</v>
       </c>
       <c r="E121" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>307.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="C122" t="n">
-        <v>341.2</v>
+        <v>287.4</v>
       </c>
       <c r="D122" t="n">
-        <v>3710</v>
+        <v>1029.7</v>
       </c>
       <c r="E122" t="n">
-        <v>13.5</v>
+        <v>10.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>279.7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>319.5</v>
+      </c>
       <c r="D123" t="n">
-        <v>442.7</v>
+        <v>1388.4</v>
       </c>
       <c r="E123" t="n">
-        <v>17.7</v>
+        <v>13.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>358.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>7.3</v>
+        <v>10.7</v>
       </c>
       <c r="C124" t="n">
-        <v>298.5</v>
+        <v>319.3</v>
       </c>
       <c r="D124" t="n">
-        <v>750</v>
+        <v>1716.2</v>
       </c>
       <c r="E124" t="n">
-        <v>12.9</v>
+        <v>13.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>327.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>8.9</v>
+        <v>16.8</v>
       </c>
       <c r="C125" t="n">
-        <v>287.4</v>
+        <v>318.4</v>
       </c>
       <c r="D125" t="n">
-        <v>1029.7</v>
+        <v>2034.8</v>
       </c>
       <c r="E125" t="n">
-        <v>10.7</v>
+        <v>14</v>
+      </c>
+      <c r="F125" t="n">
+        <v>318.5999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>16.2</v>
+        <v>12.6</v>
       </c>
       <c r="C126" t="n">
-        <v>319.5</v>
+        <v>309.7</v>
       </c>
       <c r="D126" t="n">
-        <v>1388.4</v>
+        <v>2343.4</v>
       </c>
       <c r="E126" t="n">
-        <v>13.8</v>
+        <v>14.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>308.6000000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="C127" t="n">
-        <v>319.3</v>
+        <v>337.4</v>
       </c>
       <c r="D127" t="n">
-        <v>1716.2</v>
+        <v>2699.7</v>
       </c>
       <c r="E127" t="n">
-        <v>13.3</v>
+        <v>15</v>
+      </c>
+      <c r="F127" t="n">
+        <v>356.2999999999997</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>16.8</v>
+        <v>4.9</v>
       </c>
       <c r="C128" t="n">
-        <v>318.4</v>
+        <v>324.2</v>
       </c>
       <c r="D128" t="n">
-        <v>2034.8</v>
+        <v>3054.7</v>
       </c>
       <c r="E128" t="n">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F128" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>309.7</v>
+        <v>343.7</v>
       </c>
       <c r="D129" t="n">
-        <v>2343.4</v>
+        <v>3366.6</v>
       </c>
       <c r="E129" t="n">
-        <v>14.5</v>
+        <v>13.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>311.9000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>12.4</v>
+        <v>9.6</v>
       </c>
       <c r="C130" t="n">
-        <v>337.4</v>
+        <v>341.2</v>
       </c>
       <c r="D130" t="n">
-        <v>2699.7</v>
+        <v>3710</v>
       </c>
       <c r="E130" t="n">
-        <v>15</v>
+        <v>13.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>343.4000000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-5.4</v>
+        <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>295.4</v>
+        <v>218.6</v>
       </c>
       <c r="D131" t="n">
-        <v>3093.6</v>
+        <v>491.8</v>
       </c>
       <c r="E131" t="n">
-        <v>6.1</v>
+        <v>12.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>491.8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.7</v>
+        <v>10.7</v>
       </c>
       <c r="C132" t="n">
-        <v>343</v>
+        <v>326.1</v>
       </c>
       <c r="D132" t="n">
-        <v>3461.1</v>
+        <v>825.3</v>
       </c>
       <c r="E132" t="n">
-        <v>6.2</v>
+        <v>10.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>333.4999999999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6.2</v>
+        <v>17.7</v>
       </c>
       <c r="C133" t="n">
-        <v>359.9</v>
+        <v>346</v>
       </c>
       <c r="D133" t="n">
-        <v>3821.1</v>
+        <v>1171.2</v>
       </c>
       <c r="E133" t="n">
-        <v>6.5</v>
+        <v>12.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>345.9000000000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="C134" t="n">
-        <v>218.6</v>
+        <v>344.7</v>
       </c>
       <c r="D134" t="n">
-        <v>491.8</v>
+        <v>1540.4</v>
       </c>
       <c r="E134" t="n">
-        <v>12.4</v>
+        <v>13.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>369.2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>10.7</v>
+        <v>8.6</v>
       </c>
       <c r="C135" t="n">
-        <v>326.1</v>
+        <v>337.8</v>
       </c>
       <c r="D135" t="n">
-        <v>825.3</v>
+        <v>1859.5</v>
       </c>
       <c r="E135" t="n">
-        <v>10.4</v>
+        <v>11.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>319.0999999999999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>17.7</v>
+        <v>-0.3</v>
       </c>
       <c r="C136" t="n">
-        <v>346</v>
+        <v>305.8</v>
       </c>
       <c r="D136" t="n">
-        <v>1171.2</v>
+        <v>2164.9</v>
       </c>
       <c r="E136" t="n">
-        <v>12.3</v>
+        <v>9.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>305.4000000000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9.6</v>
+        <v>6.1</v>
       </c>
       <c r="C137" t="n">
-        <v>344.7</v>
+        <v>320.8</v>
       </c>
       <c r="D137" t="n">
-        <v>1540.4</v>
+        <v>2485.4</v>
       </c>
       <c r="E137" t="n">
-        <v>13.6</v>
+        <v>9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>320.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>8.6</v>
+        <v>-4.5</v>
       </c>
       <c r="C138" t="n">
-        <v>337.8</v>
+        <v>310.8</v>
       </c>
       <c r="D138" t="n">
-        <v>1859.5</v>
+        <v>2797.9</v>
       </c>
       <c r="E138" t="n">
-        <v>11.3</v>
+        <v>7.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>312.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.3</v>
+        <v>-5.4</v>
       </c>
       <c r="C139" t="n">
-        <v>305.8</v>
+        <v>295.4</v>
       </c>
       <c r="D139" t="n">
-        <v>2164.9</v>
+        <v>3093.6</v>
       </c>
       <c r="E139" t="n">
-        <v>9.5</v>
+        <v>6.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>295.6999999999998</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="C140" t="n">
-        <v>320.8</v>
+        <v>343</v>
       </c>
       <c r="D140" t="n">
-        <v>2485.4</v>
+        <v>3461.1</v>
       </c>
       <c r="E140" t="n">
-        <v>9</v>
+        <v>6.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>367.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-4.5</v>
+        <v>6.2</v>
       </c>
       <c r="C141" t="n">
-        <v>310.8</v>
+        <v>359.9</v>
       </c>
       <c r="D141" t="n">
-        <v>2797.9</v>
+        <v>3821.1</v>
       </c>
       <c r="E141" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C142" t="n">
-        <v>321.7</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>3154.85</v>
+        <v>509.8</v>
       </c>
       <c r="E142" t="n">
-        <v>2.71</v>
+        <v>6.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>509.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.8</v>
+        <v>-0.1</v>
       </c>
       <c r="C143" t="n">
-        <v>340</v>
+        <v>316.7</v>
       </c>
       <c r="D143" t="n">
-        <v>3497.4</v>
+        <v>845.9</v>
       </c>
       <c r="E143" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>336.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.9</v>
+        <v>-9.1</v>
       </c>
       <c r="C144" t="n">
-        <v>357.5</v>
+        <v>312.3</v>
       </c>
       <c r="D144" t="n">
-        <v>3858.9</v>
+        <v>1167.3</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.2</v>
+        <v>1.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>321.4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>328.7</v>
+      </c>
       <c r="D145" t="n">
-        <v>509.8</v>
+        <v>1501.5</v>
       </c>
       <c r="E145" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>334.2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.1</v>
+        <v>2.2</v>
       </c>
       <c r="C146" t="n">
-        <v>316.7</v>
+        <v>341.8</v>
       </c>
       <c r="D146" t="n">
-        <v>845.9</v>
+        <v>1845.2</v>
       </c>
       <c r="E146" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>343.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-9.1</v>
+        <v>1.5</v>
       </c>
       <c r="C147" t="n">
-        <v>312.3</v>
+        <v>310.5</v>
       </c>
       <c r="D147" t="n">
-        <v>1167.3</v>
+        <v>2161.89</v>
       </c>
       <c r="E147" t="n">
-        <v>1.2</v>
+        <v>1.49</v>
+      </c>
+      <c r="F147" t="n">
+        <v>316.6899999999998</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1</v>
+        <v>-2.2</v>
       </c>
       <c r="C148" t="n">
-        <v>328.7</v>
+        <v>312.5</v>
       </c>
       <c r="D148" t="n">
-        <v>1501.5</v>
+        <v>2495.69</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8</v>
+        <v>1.24</v>
+      </c>
+      <c r="F148" t="n">
+        <v>333.8000000000002</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="C149" t="n">
-        <v>341.8</v>
+        <v>326.4</v>
       </c>
       <c r="D149" t="n">
-        <v>1845.2</v>
+        <v>2828.8</v>
       </c>
       <c r="E149" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>333.1100000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>310.5</v>
+        <v>321.7</v>
       </c>
       <c r="D150" t="n">
-        <v>2161.89</v>
+        <v>3154.85</v>
       </c>
       <c r="E150" t="n">
-        <v>1.49</v>
+        <v>2.71</v>
+      </c>
+      <c r="F150" t="n">
+        <v>326.0499999999997</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C151" t="n">
-        <v>312.5</v>
+        <v>340</v>
       </c>
       <c r="D151" t="n">
-        <v>2495.69</v>
+        <v>3497.4</v>
       </c>
       <c r="E151" t="n">
-        <v>1.24</v>
+        <v>2.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>342.5500000000002</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="C152" t="n">
-        <v>326.4</v>
+        <v>357.5</v>
       </c>
       <c r="D152" t="n">
-        <v>2828.8</v>
+        <v>3858.9</v>
       </c>
       <c r="E152" t="n">
-        <v>1.9</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>361.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>267.9</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>2727.7</v>
+        <v>524.5</v>
       </c>
       <c r="E153" t="n">
-        <v>-3.7</v>
+        <v>-1.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>524.5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-4</v>
+        <v>-3.1</v>
       </c>
       <c r="C154" t="n">
-        <v>297.2</v>
+        <v>320.7</v>
       </c>
       <c r="D154" t="n">
-        <v>2985.9</v>
+        <v>840.2</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.5</v>
+        <v>-3.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>315.7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-11.5</v>
+        <v>-1.4</v>
       </c>
       <c r="C155" t="n">
-        <v>278.4</v>
+        <v>315.8</v>
       </c>
       <c r="D155" t="n">
-        <v>3277.3</v>
+        <v>1159</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.2</v>
+        <v>-3.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>318.8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>352.4</v>
+      </c>
       <c r="D156" t="n">
-        <v>524.5</v>
+        <v>1511.5</v>
       </c>
       <c r="E156" t="n">
-        <v>-1.4</v>
+        <v>-2.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>352.5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-3.1</v>
+        <v>3.8</v>
       </c>
       <c r="C157" t="n">
-        <v>320.7</v>
+        <v>348.3</v>
       </c>
       <c r="D157" t="n">
-        <v>840.2</v>
+        <v>1848.4</v>
       </c>
       <c r="E157" t="n">
-        <v>-3.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>336.9000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C158" t="n">
-        <v>315.8</v>
+        <v>320.9</v>
       </c>
       <c r="D158" t="n">
-        <v>1159</v>
+        <v>2180.5</v>
       </c>
       <c r="E158" t="n">
-        <v>-3.3</v>
+        <v>-1.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>332.0999999999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3.8</v>
+        <v>-3.2</v>
       </c>
       <c r="C159" t="n">
-        <v>352.4</v>
+        <v>307.3</v>
       </c>
       <c r="D159" t="n">
-        <v>1511.5</v>
+        <v>2473.1</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.9</v>
+        <v>-1.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>292.5999999999999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3.8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>348.3</v>
+        <v>291.3</v>
       </c>
       <c r="D160" t="n">
-        <v>1848.4</v>
+        <v>2625.5</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5</v>
+        <v>-4.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>152.4000000000001</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.8</v>
+        <v>-7.3</v>
       </c>
       <c r="C161" t="n">
-        <v>320.9</v>
+        <v>267.9</v>
       </c>
       <c r="D161" t="n">
-        <v>2180.5</v>
+        <v>2727.7</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.1</v>
+        <v>-3.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>102.1999999999998</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-3.2</v>
+        <v>-4</v>
       </c>
       <c r="C162" t="n">
-        <v>307.3</v>
+        <v>297.2</v>
       </c>
       <c r="D162" t="n">
-        <v>2473.1</v>
+        <v>2985.9</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>258.2000000000003</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-8.300000000000001</v>
+        <v>-11.5</v>
       </c>
       <c r="C163" t="n">
-        <v>291.3</v>
+        <v>278.4</v>
       </c>
       <c r="D163" t="n">
-        <v>2625.5</v>
+        <v>3277.3</v>
       </c>
       <c r="E163" t="n">
-        <v>-4.1</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>291.4000000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>256.7</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>2481.4</v>
+        <v>398</v>
       </c>
       <c r="E164" t="n">
-        <v>6.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.2</v>
+        <v>12.7</v>
       </c>
       <c r="C165" t="n">
-        <v>257.5</v>
+        <v>291.4</v>
       </c>
       <c r="D165" t="n">
-        <v>2735</v>
+        <v>678.2</v>
       </c>
       <c r="E165" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>280.2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>262.1</v>
+        <v>276.1</v>
       </c>
       <c r="D166" t="n">
-        <v>3003.4</v>
+        <v>970.3</v>
       </c>
       <c r="E166" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>292.0999999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>293.9</v>
+      </c>
       <c r="D167" t="n">
-        <v>398</v>
+        <v>1262</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1</v>
+        <v>3.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>291.7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>12.7</v>
+        <v>-4.1</v>
       </c>
       <c r="C168" t="n">
-        <v>291.4</v>
+        <v>260.2</v>
       </c>
       <c r="D168" t="n">
-        <v>678.2</v>
+        <v>1524.2</v>
       </c>
       <c r="E168" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>262.2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="C169" t="n">
-        <v>276.1</v>
+        <v>251</v>
       </c>
       <c r="D169" t="n">
-        <v>970.3</v>
+        <v>1775.6</v>
       </c>
       <c r="E169" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>251.3999999999999</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C170" t="n">
-        <v>293.9</v>
+        <v>251</v>
       </c>
       <c r="D170" t="n">
-        <v>1262</v>
+        <v>2012.7</v>
       </c>
       <c r="E170" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>237.1000000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-4.1</v>
+        <v>6.7</v>
       </c>
       <c r="C171" t="n">
-        <v>260.2</v>
+        <v>256.9</v>
       </c>
       <c r="D171" t="n">
-        <v>1524.2</v>
+        <v>2216.7</v>
       </c>
       <c r="E171" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>203.9999999999998</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.2</v>
+        <v>10.6</v>
       </c>
       <c r="C172" t="n">
-        <v>251</v>
+        <v>256.7</v>
       </c>
       <c r="D172" t="n">
-        <v>1775.6</v>
+        <v>2481.4</v>
       </c>
       <c r="E172" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>264.7000000000003</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="C173" t="n">
-        <v>251</v>
+        <v>257.5</v>
       </c>
       <c r="D173" t="n">
-        <v>2012.7</v>
+        <v>2735</v>
       </c>
       <c r="E173" t="n">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>253.5999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>256.9</v>
+        <v>262.1</v>
       </c>
       <c r="D174" t="n">
-        <v>2216.7</v>
+        <v>3003.4</v>
       </c>
       <c r="E174" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>268.4000000000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>275.8</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>2710.2</v>
+        <v>424.4</v>
       </c>
       <c r="E175" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>424.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="C176" t="n">
-        <v>295.4</v>
+        <v>296.2</v>
       </c>
       <c r="D176" t="n">
-        <v>3013.6</v>
+        <v>718.9</v>
       </c>
       <c r="E176" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>294.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="C177" t="n">
-        <v>300.2</v>
+        <v>280</v>
       </c>
       <c r="D177" t="n">
-        <v>3251.6</v>
+        <v>995.4</v>
       </c>
       <c r="E177" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>276.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>280.5</v>
+      </c>
       <c r="D178" t="n">
-        <v>424.4</v>
+        <v>1306</v>
       </c>
       <c r="E178" t="n">
-        <v>7.2</v>
+        <v>2.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>310.6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
-        <v>296.2</v>
+        <v>269.8</v>
       </c>
       <c r="D179" t="n">
-        <v>718.9</v>
+        <v>1564</v>
       </c>
       <c r="E179" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="C180" t="n">
-        <v>280</v>
+        <v>269.2</v>
       </c>
       <c r="D180" t="n">
-        <v>995.4</v>
+        <v>1869.2</v>
       </c>
       <c r="E180" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>305.2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.6</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>280.5</v>
+        <v>271.2</v>
       </c>
       <c r="D181" t="n">
-        <v>1306</v>
+        <v>2148.5</v>
       </c>
       <c r="E181" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>279.3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="C182" t="n">
-        <v>269.8</v>
+        <v>289.5</v>
       </c>
       <c r="D182" t="n">
-        <v>1564</v>
+        <v>2454.9</v>
       </c>
       <c r="E182" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>306.4000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="C183" t="n">
-        <v>269.2</v>
+        <v>275.8</v>
       </c>
       <c r="D183" t="n">
-        <v>1869.2</v>
+        <v>2710.2</v>
       </c>
       <c r="E183" t="n">
         <v>2.5</v>
       </c>
+      <c r="F183" t="n">
+        <v>255.2999999999997</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="C184" t="n">
-        <v>271.2</v>
+        <v>295.4</v>
       </c>
       <c r="D184" t="n">
-        <v>2148.5</v>
+        <v>3013.6</v>
       </c>
       <c r="E184" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>303.4000000000001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="C185" t="n">
-        <v>289.5</v>
+        <v>300.2</v>
       </c>
       <c r="D185" t="n">
-        <v>2454.9</v>
+        <v>3251.6</v>
       </c>
       <c r="E185" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>348.1</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>3075.3</v>
+        <v>354.9</v>
       </c>
       <c r="E186" t="n">
-        <v>1.7</v>
+        <v>-17.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>354.9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7</v>
+        <v>-3.8</v>
       </c>
       <c r="C187" t="n">
-        <v>364.5</v>
+        <v>321.4</v>
       </c>
       <c r="D187" t="n">
-        <v>3450.4</v>
+        <v>722</v>
       </c>
       <c r="E187" t="n">
-        <v>2.4</v>
+        <v>-12.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>367.1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="C188" t="n">
-        <v>397.3</v>
+        <v>335.6</v>
       </c>
       <c r="D188" t="n">
-        <v>3912.3</v>
+        <v>1061.2</v>
       </c>
       <c r="E188" t="n">
-        <v>3.9</v>
+        <v>-5.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>339.2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>305</v>
+      </c>
       <c r="D189" t="n">
-        <v>354.9</v>
+        <v>1360.9</v>
       </c>
       <c r="E189" t="n">
-        <v>-17.7</v>
+        <v>-5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>299.7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-3.8</v>
+        <v>10.1</v>
       </c>
       <c r="C190" t="n">
-        <v>321.4</v>
+        <v>314.7</v>
       </c>
       <c r="D190" t="n">
-        <v>722</v>
+        <v>1662.7</v>
       </c>
       <c r="E190" t="n">
-        <v>-12.2</v>
+        <v>-0.3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>301.8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>8.5</v>
+        <v>11.3</v>
       </c>
       <c r="C191" t="n">
-        <v>335.6</v>
+        <v>333.4</v>
       </c>
       <c r="D191" t="n">
-        <v>1061.2</v>
+        <v>2061.7</v>
       </c>
       <c r="E191" t="n">
-        <v>-5.6</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>398.9999999999998</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.8</v>
+        <v>5.3</v>
       </c>
       <c r="C192" t="n">
-        <v>305</v>
+        <v>326.9</v>
       </c>
       <c r="D192" t="n">
-        <v>1360.9</v>
+        <v>2393.8</v>
       </c>
       <c r="E192" t="n">
-        <v>-5</v>
+        <v>0.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>332.1000000000004</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>10.1</v>
+        <v>2.1</v>
       </c>
       <c r="C193" t="n">
-        <v>314.7</v>
+        <v>333.4</v>
       </c>
       <c r="D193" t="n">
-        <v>1662.7</v>
+        <v>2728.1</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.3</v>
+        <v>1.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>334.2999999999997</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>11.3</v>
+        <v>6.5</v>
       </c>
       <c r="C194" t="n">
-        <v>333.4</v>
+        <v>348.1</v>
       </c>
       <c r="D194" t="n">
-        <v>2061.7</v>
+        <v>3075.3</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.1</v>
+        <v>1.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>347.2000000000003</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="C195" t="n">
-        <v>326.9</v>
+        <v>364.5</v>
       </c>
       <c r="D195" t="n">
-        <v>2393.8</v>
+        <v>3450.4</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
+      </c>
+      <c r="F195" t="n">
+        <v>375.0999999999999</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.1</v>
+        <v>12.5</v>
       </c>
       <c r="C196" t="n">
-        <v>333.4</v>
+        <v>397.3</v>
       </c>
       <c r="D196" t="n">
-        <v>2728.1</v>
+        <v>3912.3</v>
       </c>
       <c r="E196" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>461.9000000000001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>-3</v>
-      </c>
-      <c r="C197" t="n">
-        <v>357.9</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>3602.9</v>
+        <v>600.5</v>
       </c>
       <c r="E197" t="n">
-        <v>12.2</v>
+        <v>36.1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>600.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2.2</v>
+        <v>20.5</v>
       </c>
       <c r="C198" t="n">
-        <v>392.3</v>
+        <v>401.9</v>
       </c>
       <c r="D198" t="n">
-        <v>4023.6</v>
+        <v>1004.5</v>
       </c>
       <c r="E198" t="n">
-        <v>11.7</v>
+        <v>32.7</v>
+      </c>
+      <c r="F198" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>7.4</v>
+        <v>11.7</v>
       </c>
       <c r="C199" t="n">
-        <v>441.4</v>
+        <v>396.3</v>
       </c>
       <c r="D199" t="n">
-        <v>4510.9</v>
+        <v>1441.2</v>
       </c>
       <c r="E199" t="n">
-        <v>11.6</v>
+        <v>27.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>436.7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>377</v>
+      </c>
       <c r="D200" t="n">
-        <v>600.5</v>
+        <v>1790.4</v>
       </c>
       <c r="E200" t="n">
-        <v>36.1</v>
+        <v>22.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>349.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>20.5</v>
+        <v>14.8</v>
       </c>
       <c r="C201" t="n">
-        <v>401.9</v>
+        <v>378.8</v>
       </c>
       <c r="D201" t="n">
-        <v>1004.5</v>
+        <v>2173.1</v>
       </c>
       <c r="E201" t="n">
-        <v>32.7</v>
+        <v>21.4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>382.6999999999998</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>11.7</v>
+        <v>-1.5</v>
       </c>
       <c r="C202" t="n">
-        <v>396.3</v>
+        <v>350.4</v>
       </c>
       <c r="D202" t="n">
-        <v>1441.2</v>
+        <v>2531.9</v>
       </c>
       <c r="E202" t="n">
-        <v>27.8</v>
+        <v>18.4</v>
+      </c>
+      <c r="F202" t="n">
+        <v>358.8000000000002</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>12.5</v>
+        <v>3.7</v>
       </c>
       <c r="C203" t="n">
-        <v>377</v>
+        <v>359.3</v>
       </c>
       <c r="D203" t="n">
-        <v>1790.4</v>
+        <v>2885.8</v>
       </c>
       <c r="E203" t="n">
-        <v>22.1</v>
+        <v>16.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>353.9000000000001</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>14.8</v>
+        <v>1.3</v>
       </c>
       <c r="C204" t="n">
-        <v>378.8</v>
+        <v>358.8</v>
       </c>
       <c r="D204" t="n">
-        <v>2173.1</v>
+        <v>3245.1</v>
       </c>
       <c r="E204" t="n">
-        <v>21.4</v>
+        <v>14.4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>359.2999999999997</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1.5</v>
+        <v>-3</v>
       </c>
       <c r="C205" t="n">
-        <v>350.4</v>
+        <v>357.9</v>
       </c>
       <c r="D205" t="n">
-        <v>2531.9</v>
+        <v>3602.9</v>
       </c>
       <c r="E205" t="n">
-        <v>18.4</v>
+        <v>12.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>357.8000000000002</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="C206" t="n">
-        <v>359.3</v>
+        <v>392.3</v>
       </c>
       <c r="D206" t="n">
-        <v>2885.8</v>
+        <v>4023.6</v>
       </c>
       <c r="E206" t="n">
-        <v>16.2</v>
+        <v>11.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>420.6999999999998</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="C207" t="n">
-        <v>358.8</v>
+        <v>441.4</v>
       </c>
       <c r="D207" t="n">
-        <v>3245.1</v>
+        <v>4510.9</v>
       </c>
       <c r="E207" t="n">
-        <v>14.4</v>
+        <v>11.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>487.2999999999997</v>
       </c>
     </row>
   </sheetData>
